--- a/Documentation/Project Logbook.xlsx
+++ b/Documentation/Project Logbook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Start Date</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t xml:space="preserve">Lastest update: </t>
+  </si>
+  <si>
+    <t>Test Plan template created and fixed</t>
+  </si>
+  <si>
+    <t>Code compatibiity and folder structure issues fixed</t>
   </si>
 </sst>
 </file>
@@ -427,11 +433,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,7 +780,7 @@
   <dimension ref="A1:D875"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,12 +792,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -823,7 +829,7 @@
       <c r="B8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>43079</v>
       </c>
     </row>
@@ -1219,8 +1225,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>43079</v>
+      </c>
+      <c r="B38" s="18">
+        <v>43079</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>43079</v>
+      </c>
+      <c r="B39" s="18">
+        <v>43079</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/Project Logbook.xlsx
+++ b/Documentation/Project Logbook.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$10:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$11:$D$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Start Date</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>Code compatibiity and folder structure issues fixed</t>
+  </si>
+  <si>
+    <t>Coach:</t>
+  </si>
+  <si>
+    <t>Luis Martínez Villanueva</t>
+  </si>
+  <si>
+    <t>SW_C_Code_Review document created and updated</t>
+  </si>
+  <si>
+    <t>Defect Log document created and updated</t>
   </si>
 </sst>
 </file>
@@ -499,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D351" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A10:D351"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:D352" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A11:D352"/>
   <sortState ref="A11:D355">
     <sortCondition ref="A10:A355"/>
   </sortState>
@@ -777,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D875"/>
+  <dimension ref="A1:D876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,361 +838,355 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24">
-        <v>43079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="24">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>43073</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>43073</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>43073</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>43073</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>43073</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>43074</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>43073</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5">
         <v>43074</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>43073</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>43073</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>43073</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>43074</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>43073</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>43074</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>43074</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>43074</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>43074</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>43074</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>43074</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>43074</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>43075</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2">
         <v>43075</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>43075</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5">
         <v>43075</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>43075</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>43075</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>43076</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
         <v>43076</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>43076</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>43076</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>43076</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <v>43076</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>43076</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2">
         <v>43076</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>43076</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>43076</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>43076</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>43076</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
         <v>43076</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B31" s="16">
         <v>43076</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
-        <v>43076</v>
-      </c>
-      <c r="B31" s="18">
-        <v>43077</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
+        <v>43076</v>
+      </c>
+      <c r="B32" s="18">
         <v>43077</v>
       </c>
-      <c r="B32" s="18">
-        <v>43078</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>43077</v>
       </c>
       <c r="B33" s="18">
+        <v>43078</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>43077</v>
+      </c>
+      <c r="B34" s="18">
         <v>43079</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
-        <v>43078</v>
-      </c>
-      <c r="B34" s="18">
-        <v>43078</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,10 +1197,10 @@
         <v>43078</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,10 +1211,10 @@
         <v>43078</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,18 +1222,18 @@
         <v>43078</v>
       </c>
       <c r="B37" s="18">
-        <v>43079</v>
+        <v>43078</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
-        <v>43079</v>
+        <v>43078</v>
       </c>
       <c r="B38" s="18">
         <v>43079</v>
@@ -1236,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,12 +1256,51 @@
         <v>3</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>43079</v>
+      </c>
+      <c r="B40" s="18">
+        <v>43079</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>43080</v>
+      </c>
+      <c r="B41" s="18">
+        <v>43080</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>43080</v>
+      </c>
+      <c r="B42" s="18">
+        <v>43080</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2089,6 +2134,7 @@
     <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Documentation/Project Logbook.xlsx
+++ b/Documentation/Project Logbook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Start Date</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Defect Log document created and updated</t>
+  </si>
+  <si>
+    <t>DSD_Design updated</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <dimension ref="A1:D876"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1304,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>43080</v>
+      </c>
+      <c r="B43" s="18">
+        <v>43080</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/Project Logbook.xlsx
+++ b/Documentation/Project Logbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoGitSVN\AEP_PSS_ACU\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uidn8311\Desktop\Final Project Workspace\AEP_PSS_ACU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Start Date</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Code compatibiity and folder structure issues fixed</t>
+  </si>
+  <si>
+    <t>Antonio Vazquez</t>
+  </si>
+  <si>
+    <t>CAN code issues with the initialization solved (still present some problems with the timer)</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -439,6 +445,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1260,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>43080</v>
+      </c>
+      <c r="B40" s="26">
+        <v>43080</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/Project Logbook.xlsx
+++ b/Documentation/Project Logbook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Start Date</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Timing testing for the scheduler using  the Log Signal Analyzer</t>
-  </si>
-  <si>
-    <t>Timing testing for the Seat Sensor Manger  the scheduler using  the Log Signal Analyzer</t>
   </si>
   <si>
     <t>Project Logbook</t>
@@ -243,6 +240,15 @@
   </si>
   <si>
     <t>DSD_Design updated</t>
+  </si>
+  <si>
+    <t>Timing testing for the Seat Sensor Manger with the scheduler using  the Logic Signal Analyzer</t>
+  </si>
+  <si>
+    <t>Timing testing for the Read CAN bus function with the scheduler using the Logic Signal Analyzer</t>
+  </si>
+  <si>
+    <t>Problem with the CAN Analyzer from Microchip identified and solved</t>
   </si>
 </sst>
 </file>
@@ -794,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -816,7 +822,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -824,33 +830,33 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24">
         <v>43080</v>
@@ -1245,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1315,11 +1321,37 @@
         <v>3</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>43081</v>
+      </c>
+      <c r="B44" s="18">
+        <v>43081</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>43081</v>
+      </c>
+      <c r="B45" s="18">
+        <v>43081</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/Project Logbook.xlsx
+++ b/Documentation/Project Logbook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Start Date</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Problem with the CAN Analyzer from Microchip identified and solved</t>
+  </si>
+  <si>
+    <t>Develop of an alternative CAN driver (MCAL and HAL).</t>
+  </si>
+  <si>
+    <t>Connection between two NXP boards using the CAN bus to solve the CAN Analyzer issue found</t>
   </si>
 </sst>
 </file>
@@ -520,8 +526,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:D352" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A11:D352"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:D353" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A11:D353"/>
   <sortState ref="A11:D355">
     <sortCondition ref="A10:A355"/>
   </sortState>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D876"/>
+  <dimension ref="A1:D877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,9 +1330,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="B44" s="18">
         <v>43081</v>
@@ -1334,11 +1340,11 @@
       <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>43081</v>
       </c>
@@ -1346,14 +1352,40 @@
         <v>43081</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>43081</v>
+      </c>
+      <c r="B46" s="18">
+        <v>43081</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>43081</v>
+      </c>
+      <c r="B47" s="18">
+        <v>43081</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2183,6 +2215,7 @@
     <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Documentation/Project Logbook.xlsx
+++ b/Documentation/Project Logbook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>Start Date</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>Connection between two NXP boards using the CAN bus to solve the CAN Analyzer issue found</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Develop ord the main State Machine of the ACU</t>
+  </si>
+  <si>
+    <t>Traceability Matrix updated: comments added to requierements that will not be implemeted and word-standarization in the matrix.</t>
+  </si>
+  <si>
+    <t>Develop of the Passenger Seat Bealt Reminder State Machine</t>
+  </si>
+  <si>
+    <t>Develop of the Driver Seat Bealt Reminder State Machine</t>
+  </si>
+  <si>
+    <t>Realization constraints and targets added to the DSD_Design, CAN messages and signals description.</t>
+  </si>
+  <si>
+    <t>Test Plan updated, 10 Tests added</t>
+  </si>
+  <si>
+    <t>CAN alternative driver validation and integration.</t>
   </si>
 </sst>
 </file>
@@ -393,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -463,14 +487,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -526,16 +562,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:D353" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:D353" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A11:D353"/>
-  <sortState ref="A11:D355">
-    <sortCondition ref="A10:A355"/>
+  <sortState ref="A12:D353">
+    <sortCondition ref="A11:A353"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Start Date"/>
-    <tableColumn id="2" name="Finish Date"/>
+    <tableColumn id="1" name="Start Date" dataDxfId="1"/>
+    <tableColumn id="2" name="Finish Date" dataDxfId="0"/>
     <tableColumn id="3" name="Member"/>
-    <tableColumn id="4" name="Activity" dataDxfId="0"/>
+    <tableColumn id="4" name="Activity" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -806,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,12 +855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -1183,10 +1219,10 @@
       <c r="B33" s="18">
         <v>43078</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1211,10 +1247,10 @@
       <c r="B35" s="18">
         <v>43078</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1225,10 +1261,10 @@
       <c r="B36" s="18">
         <v>43078</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1239,10 +1275,10 @@
       <c r="B37" s="18">
         <v>43078</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="20" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1253,10 +1289,10 @@
       <c r="B38" s="18">
         <v>43079</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1267,10 +1303,10 @@
       <c r="B39" s="18">
         <v>43079</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1281,10 +1317,10 @@
       <c r="B40" s="18">
         <v>43079</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1295,7 +1331,7 @@
       <c r="B41" s="18">
         <v>43080</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -1309,7 +1345,7 @@
       <c r="B42" s="18">
         <v>43080</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -1323,7 +1359,7 @@
       <c r="B43" s="18">
         <v>43080</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -1337,7 +1373,7 @@
       <c r="B44" s="18">
         <v>43081</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -1346,16 +1382,16 @@
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="B45" s="18">
-        <v>43081</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>51</v>
+        <v>43080</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,11 +1401,11 @@
       <c r="B46" s="18">
         <v>43081</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>52</v>
+      <c r="D46" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,334 +1415,1322 @@
       <c r="B47" s="18">
         <v>43081</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>43081</v>
+      </c>
+      <c r="B48" s="18">
+        <v>43081</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>43081</v>
+      </c>
+      <c r="B49" s="18">
+        <v>43081</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>43081</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>43082</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>43082</v>
+      </c>
+      <c r="B52" s="18">
+        <v>43082</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>43082</v>
+      </c>
+      <c r="B53" s="18">
+        <v>43082</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>43082</v>
+      </c>
+      <c r="B54" s="18">
+        <v>43082</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+    </row>
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+    </row>
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+    </row>
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+    </row>
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+    </row>
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+    </row>
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+    </row>
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+    </row>
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+    </row>
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+    </row>
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+    </row>
+    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+    </row>
+    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+    </row>
+    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+    </row>
+    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+    </row>
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+    </row>
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+    </row>
+    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+    </row>
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+    </row>
+    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+    </row>
+    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+    </row>
+    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+    </row>
+    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+    </row>
+    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+    </row>
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+    </row>
+    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+    </row>
+    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+    </row>
+    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+    </row>
+    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+    </row>
+    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+    </row>
+    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+    </row>
+    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+    </row>
+    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+    </row>
+    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+    </row>
+    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+    </row>
+    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+    </row>
+    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+    </row>
+    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+    </row>
+    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+    </row>
+    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+    </row>
+    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+    </row>
+    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+    </row>
+    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+    </row>
+    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+    </row>
+    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+    </row>
+    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+    </row>
+    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+    </row>
+    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+    </row>
+    <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+    </row>
+    <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+    </row>
+    <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+    </row>
+    <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+    </row>
+    <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+    </row>
+    <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+    </row>
+    <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+    </row>
+    <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
+    </row>
+    <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+    </row>
+    <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
+    </row>
+    <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
+    </row>
+    <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="29"/>
+      <c r="B137" s="29"/>
+    </row>
+    <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
+    </row>
+    <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+    </row>
+    <row r="140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
+    </row>
+    <row r="141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+    </row>
+    <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+    </row>
+    <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+    </row>
+    <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+    </row>
+    <row r="145" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+    </row>
+    <row r="146" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+    </row>
+    <row r="147" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+    </row>
+    <row r="148" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+    </row>
+    <row r="149" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+    </row>
+    <row r="150" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="29"/>
+      <c r="B150" s="29"/>
+    </row>
+    <row r="151" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="29"/>
+      <c r="B151" s="29"/>
+    </row>
+    <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+    </row>
+    <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="29"/>
+      <c r="B153" s="29"/>
+    </row>
+    <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="29"/>
+      <c r="B154" s="29"/>
+    </row>
+    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="29"/>
+      <c r="B155" s="29"/>
+    </row>
+    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="29"/>
+      <c r="B156" s="29"/>
+    </row>
+    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="29"/>
+      <c r="B157" s="29"/>
+    </row>
+    <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="29"/>
+      <c r="B158" s="29"/>
+    </row>
+    <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="29"/>
+      <c r="B159" s="29"/>
+    </row>
+    <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="29"/>
+      <c r="B160" s="29"/>
+    </row>
+    <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="29"/>
+      <c r="B161" s="29"/>
+    </row>
+    <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="29"/>
+      <c r="B162" s="29"/>
+    </row>
+    <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
+    </row>
+    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
+    </row>
+    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
+    </row>
+    <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+    </row>
+    <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
+    </row>
+    <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="29"/>
+      <c r="B168" s="29"/>
+    </row>
+    <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="29"/>
+      <c r="B169" s="29"/>
+    </row>
+    <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="29"/>
+      <c r="B170" s="29"/>
+    </row>
+    <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="29"/>
+      <c r="B171" s="29"/>
+    </row>
+    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="29"/>
+      <c r="B172" s="29"/>
+    </row>
+    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="29"/>
+      <c r="B173" s="29"/>
+    </row>
+    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="29"/>
+      <c r="B174" s="29"/>
+    </row>
+    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="29"/>
+      <c r="B175" s="29"/>
+    </row>
+    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="29"/>
+      <c r="B176" s="29"/>
+    </row>
+    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="29"/>
+      <c r="B177" s="29"/>
+    </row>
+    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="29"/>
+      <c r="B178" s="29"/>
+    </row>
+    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="29"/>
+      <c r="B179" s="29"/>
+    </row>
+    <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="29"/>
+      <c r="B180" s="29"/>
+    </row>
+    <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="29"/>
+      <c r="B181" s="29"/>
+    </row>
+    <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="29"/>
+      <c r="B182" s="29"/>
+    </row>
+    <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="29"/>
+      <c r="B183" s="29"/>
+    </row>
+    <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="29"/>
+      <c r="B184" s="29"/>
+    </row>
+    <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="29"/>
+      <c r="B185" s="29"/>
+    </row>
+    <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="29"/>
+      <c r="B186" s="29"/>
+    </row>
+    <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="29"/>
+      <c r="B187" s="29"/>
+    </row>
+    <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="29"/>
+      <c r="B188" s="29"/>
+    </row>
+    <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="29"/>
+      <c r="B189" s="29"/>
+    </row>
+    <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="29"/>
+      <c r="B190" s="29"/>
+    </row>
+    <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
+    </row>
+    <row r="192" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
+    </row>
+    <row r="193" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
+    </row>
+    <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
+    </row>
+    <row r="195" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="29"/>
+      <c r="B195" s="29"/>
+    </row>
+    <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="29"/>
+      <c r="B196" s="29"/>
+    </row>
+    <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="29"/>
+      <c r="B197" s="29"/>
+    </row>
+    <row r="198" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="29"/>
+      <c r="B198" s="29"/>
+    </row>
+    <row r="199" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="29"/>
+      <c r="B199" s="29"/>
+    </row>
+    <row r="200" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="29"/>
+      <c r="B200" s="29"/>
+    </row>
+    <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="29"/>
+      <c r="B201" s="29"/>
+    </row>
+    <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="29"/>
+      <c r="B202" s="29"/>
+    </row>
+    <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="29"/>
+      <c r="B203" s="29"/>
+    </row>
+    <row r="204" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="29"/>
+      <c r="B204" s="29"/>
+    </row>
+    <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="29"/>
+      <c r="B205" s="29"/>
+    </row>
+    <row r="206" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="29"/>
+      <c r="B206" s="29"/>
+    </row>
+    <row r="207" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="29"/>
+      <c r="B207" s="29"/>
+    </row>
+    <row r="208" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="29"/>
+      <c r="B208" s="29"/>
+    </row>
+    <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="29"/>
+      <c r="B209" s="29"/>
+    </row>
+    <row r="210" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="29"/>
+      <c r="B210" s="29"/>
+    </row>
+    <row r="211" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
+    </row>
+    <row r="212" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="29"/>
+      <c r="B212" s="29"/>
+    </row>
+    <row r="213" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
+    </row>
+    <row r="214" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="29"/>
+      <c r="B214" s="29"/>
+    </row>
+    <row r="215" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="29"/>
+      <c r="B215" s="29"/>
+    </row>
+    <row r="216" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="29"/>
+      <c r="B216" s="29"/>
+    </row>
+    <row r="217" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
+    </row>
+    <row r="218" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
+    </row>
+    <row r="219" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
+    </row>
+    <row r="220" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="29"/>
+      <c r="B220" s="29"/>
+    </row>
+    <row r="221" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="29"/>
+      <c r="B221" s="29"/>
+    </row>
+    <row r="222" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="29"/>
+      <c r="B222" s="29"/>
+    </row>
+    <row r="223" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="29"/>
+      <c r="B223" s="29"/>
+    </row>
+    <row r="224" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="29"/>
+      <c r="B224" s="29"/>
+    </row>
+    <row r="225" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="29"/>
+      <c r="B225" s="29"/>
+    </row>
+    <row r="226" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="29"/>
+      <c r="B226" s="29"/>
+    </row>
+    <row r="227" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="29"/>
+      <c r="B227" s="29"/>
+    </row>
+    <row r="228" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
+    </row>
+    <row r="229" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="29"/>
+      <c r="B229" s="29"/>
+    </row>
+    <row r="230" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="29"/>
+      <c r="B230" s="29"/>
+    </row>
+    <row r="231" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="29"/>
+      <c r="B231" s="29"/>
+    </row>
+    <row r="232" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="29"/>
+      <c r="B232" s="29"/>
+    </row>
+    <row r="233" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="29"/>
+      <c r="B233" s="29"/>
+    </row>
+    <row r="234" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="29"/>
+      <c r="B234" s="29"/>
+    </row>
+    <row r="235" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="29"/>
+      <c r="B235" s="29"/>
+    </row>
+    <row r="236" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="29"/>
+      <c r="B236" s="29"/>
+    </row>
+    <row r="237" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="29"/>
+      <c r="B237" s="29"/>
+    </row>
+    <row r="238" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="29"/>
+      <c r="B238" s="29"/>
+    </row>
+    <row r="239" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="29"/>
+      <c r="B239" s="29"/>
+    </row>
+    <row r="240" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="29"/>
+      <c r="B240" s="29"/>
+    </row>
+    <row r="241" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
+    </row>
+    <row r="242" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="29"/>
+      <c r="B242" s="29"/>
+    </row>
+    <row r="243" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="29"/>
+      <c r="B243" s="29"/>
+    </row>
+    <row r="244" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="29"/>
+      <c r="B244" s="29"/>
+    </row>
+    <row r="245" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="29"/>
+      <c r="B245" s="29"/>
+    </row>
+    <row r="246" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="29"/>
+      <c r="B246" s="29"/>
+    </row>
+    <row r="247" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="29"/>
+      <c r="B247" s="29"/>
+    </row>
+    <row r="248" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="29"/>
+      <c r="B248" s="29"/>
+    </row>
+    <row r="249" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="29"/>
+      <c r="B249" s="29"/>
+    </row>
+    <row r="250" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="29"/>
+      <c r="B250" s="29"/>
+    </row>
+    <row r="251" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="29"/>
+      <c r="B251" s="29"/>
+    </row>
+    <row r="252" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="29"/>
+      <c r="B252" s="29"/>
+    </row>
+    <row r="253" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="29"/>
+      <c r="B253" s="29"/>
+    </row>
+    <row r="254" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="29"/>
+      <c r="B254" s="29"/>
+    </row>
+    <row r="255" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="29"/>
+      <c r="B255" s="29"/>
+    </row>
+    <row r="256" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="29"/>
+      <c r="B256" s="29"/>
+    </row>
+    <row r="257" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="29"/>
+      <c r="B257" s="29"/>
+    </row>
+    <row r="258" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="29"/>
+      <c r="B258" s="29"/>
+    </row>
+    <row r="259" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="29"/>
+      <c r="B259" s="29"/>
+    </row>
+    <row r="260" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="29"/>
+      <c r="B260" s="29"/>
+    </row>
+    <row r="261" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="29"/>
+      <c r="B261" s="29"/>
+    </row>
+    <row r="262" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="29"/>
+      <c r="B262" s="29"/>
+    </row>
+    <row r="263" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="29"/>
+      <c r="B263" s="29"/>
+    </row>
+    <row r="264" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="29"/>
+      <c r="B264" s="29"/>
+    </row>
+    <row r="265" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="29"/>
+      <c r="B265" s="29"/>
+    </row>
+    <row r="266" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="29"/>
+      <c r="B266" s="29"/>
+    </row>
+    <row r="267" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="29"/>
+      <c r="B267" s="29"/>
+    </row>
+    <row r="268" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="29"/>
+      <c r="B268" s="29"/>
+    </row>
+    <row r="269" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="29"/>
+      <c r="B269" s="29"/>
+    </row>
+    <row r="270" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="29"/>
+      <c r="B270" s="29"/>
+    </row>
+    <row r="271" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="29"/>
+      <c r="B271" s="29"/>
+    </row>
+    <row r="272" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="29"/>
+      <c r="B272" s="29"/>
+    </row>
+    <row r="273" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="29"/>
+      <c r="B273" s="29"/>
+    </row>
+    <row r="274" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="29"/>
+      <c r="B274" s="29"/>
+    </row>
+    <row r="275" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="29"/>
+      <c r="B275" s="29"/>
+    </row>
+    <row r="276" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="29"/>
+      <c r="B276" s="29"/>
+    </row>
+    <row r="277" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="29"/>
+      <c r="B277" s="29"/>
+    </row>
+    <row r="278" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="29"/>
+      <c r="B278" s="29"/>
+    </row>
+    <row r="279" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="29"/>
+      <c r="B279" s="29"/>
+    </row>
+    <row r="280" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="29"/>
+      <c r="B280" s="29"/>
+    </row>
+    <row r="281" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="29"/>
+      <c r="B281" s="29"/>
+    </row>
+    <row r="282" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="29"/>
+      <c r="B282" s="29"/>
+    </row>
+    <row r="283" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="29"/>
+      <c r="B283" s="29"/>
+    </row>
+    <row r="284" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="29"/>
+      <c r="B284" s="29"/>
+    </row>
+    <row r="285" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="29"/>
+      <c r="B285" s="29"/>
+    </row>
+    <row r="286" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="29"/>
+      <c r="B286" s="29"/>
+    </row>
+    <row r="287" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="29"/>
+      <c r="B287" s="29"/>
+    </row>
+    <row r="288" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="29"/>
+      <c r="B288" s="29"/>
+    </row>
+    <row r="289" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="29"/>
+      <c r="B289" s="29"/>
+    </row>
+    <row r="290" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="29"/>
+      <c r="B290" s="29"/>
+    </row>
+    <row r="291" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="29"/>
+      <c r="B291" s="29"/>
+    </row>
+    <row r="292" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="29"/>
+      <c r="B292" s="29"/>
+    </row>
+    <row r="293" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="29"/>
+      <c r="B293" s="29"/>
+    </row>
+    <row r="294" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="29"/>
+      <c r="B294" s="29"/>
+    </row>
+    <row r="295" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="29"/>
+      <c r="B295" s="29"/>
+    </row>
+    <row r="296" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="29"/>
+      <c r="B296" s="29"/>
+    </row>
+    <row r="297" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="29"/>
+      <c r="B297" s="29"/>
+    </row>
+    <row r="298" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="29"/>
+      <c r="B298" s="29"/>
+    </row>
+    <row r="299" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="29"/>
+      <c r="B299" s="29"/>
+    </row>
+    <row r="300" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="29"/>
+      <c r="B300" s="29"/>
+    </row>
+    <row r="301" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="29"/>
+      <c r="B301" s="29"/>
+    </row>
+    <row r="302" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="29"/>
+      <c r="B302" s="29"/>
+    </row>
+    <row r="303" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="29"/>
+      <c r="B303" s="29"/>
+    </row>
+    <row r="304" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="29"/>
+      <c r="B304" s="29"/>
+    </row>
+    <row r="305" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="29"/>
+      <c r="B305" s="29"/>
+    </row>
+    <row r="306" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="29"/>
+      <c r="B306" s="29"/>
+    </row>
+    <row r="307" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="29"/>
+      <c r="B307" s="29"/>
+    </row>
+    <row r="308" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="29"/>
+      <c r="B308" s="29"/>
+    </row>
+    <row r="309" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="29"/>
+      <c r="B309" s="29"/>
+    </row>
+    <row r="310" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="29"/>
+      <c r="B310" s="29"/>
+    </row>
+    <row r="311" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="29"/>
+      <c r="B311" s="29"/>
+    </row>
+    <row r="312" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="29"/>
+      <c r="B312" s="29"/>
+    </row>
+    <row r="313" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="29"/>
+      <c r="B313" s="29"/>
+    </row>
+    <row r="314" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="29"/>
+      <c r="B314" s="29"/>
+    </row>
+    <row r="315" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="29"/>
+      <c r="B315" s="29"/>
+    </row>
+    <row r="316" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="29"/>
+      <c r="B316" s="29"/>
+    </row>
+    <row r="317" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="29"/>
+      <c r="B317" s="29"/>
+    </row>
+    <row r="318" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="29"/>
+      <c r="B318" s="29"/>
+    </row>
+    <row r="319" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="29"/>
+      <c r="B319" s="29"/>
+    </row>
+    <row r="320" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="29"/>
+      <c r="B320" s="29"/>
+    </row>
+    <row r="321" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="29"/>
+      <c r="B321" s="29"/>
+    </row>
+    <row r="322" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="29"/>
+      <c r="B322" s="29"/>
+    </row>
+    <row r="323" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="29"/>
+      <c r="B323" s="29"/>
+    </row>
+    <row r="324" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="29"/>
+      <c r="B324" s="29"/>
+    </row>
+    <row r="325" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="29"/>
+      <c r="B325" s="29"/>
+    </row>
+    <row r="326" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="29"/>
+      <c r="B326" s="29"/>
+    </row>
+    <row r="327" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="29"/>
+      <c r="B327" s="29"/>
+    </row>
+    <row r="328" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="29"/>
+      <c r="B328" s="29"/>
+    </row>
+    <row r="329" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="29"/>
+      <c r="B329" s="29"/>
+    </row>
+    <row r="330" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="29"/>
+      <c r="B330" s="29"/>
+    </row>
+    <row r="331" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="29"/>
+      <c r="B331" s="29"/>
+    </row>
+    <row r="332" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="29"/>
+      <c r="B332" s="29"/>
+    </row>
+    <row r="333" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="29"/>
+      <c r="B333" s="29"/>
+    </row>
+    <row r="334" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="29"/>
+      <c r="B334" s="29"/>
+    </row>
+    <row r="335" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="29"/>
+      <c r="B335" s="29"/>
+    </row>
+    <row r="336" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="29"/>
+      <c r="B336" s="29"/>
+    </row>
+    <row r="337" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="29"/>
+      <c r="B337" s="29"/>
+    </row>
+    <row r="338" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="29"/>
+      <c r="B338" s="29"/>
+    </row>
+    <row r="339" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="29"/>
+      <c r="B339" s="29"/>
+    </row>
+    <row r="340" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="29"/>
+      <c r="B340" s="29"/>
+    </row>
+    <row r="341" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="29"/>
+      <c r="B341" s="29"/>
+    </row>
+    <row r="342" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="29"/>
+      <c r="B342" s="29"/>
+    </row>
+    <row r="343" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="29"/>
+      <c r="B343" s="29"/>
+    </row>
+    <row r="344" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="29"/>
+      <c r="B344" s="29"/>
+    </row>
+    <row r="345" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="29"/>
+      <c r="B345" s="29"/>
+    </row>
+    <row r="346" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="29"/>
+      <c r="B346" s="29"/>
+    </row>
+    <row r="347" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="29"/>
+      <c r="B347" s="29"/>
+    </row>
+    <row r="348" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="29"/>
+      <c r="B348" s="29"/>
+    </row>
+    <row r="349" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="29"/>
+      <c r="B349" s="29"/>
+    </row>
+    <row r="350" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="29"/>
+      <c r="B350" s="29"/>
+    </row>
+    <row r="351" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="29"/>
+      <c r="B351" s="29"/>
+    </row>
+    <row r="352" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="29"/>
+      <c r="B352" s="29"/>
+    </row>
+    <row r="353" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="29"/>
+      <c r="B353" s="29"/>
+    </row>
+    <row r="354" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
